--- a/week_3.xlsx
+++ b/week_3.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\FIN221\SP25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Dropbox\FIN221\SP25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{817255DE-51F0-4D61-9B25-C9AFAD991610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB031A0-3A7E-495E-A68F-D3DCC3D48797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{FD38343B-B4A7-4C2F-93EE-6778104FDB1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" xr2:uid="{FD38343B-B4A7-4C2F-93EE-6778104FDB1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Compounding" sheetId="1" r:id="rId1"/>
     <sheet name="Car Shopping " sheetId="3" r:id="rId2"/>
     <sheet name="Car Payments" sheetId="7" r:id="rId3"/>
-    <sheet name="Car Payments Ans" sheetId="10" r:id="rId4"/>
+    <sheet name="Car Payments Ans" sheetId="10" state="hidden" r:id="rId4"/>
     <sheet name="EAR" sheetId="4" r:id="rId5"/>
     <sheet name="Extending Credit" sheetId="6" r:id="rId6"/>
     <sheet name="Annuity" sheetId="8" r:id="rId7"/>
     <sheet name="Uneven CF" sheetId="9" r:id="rId8"/>
-    <sheet name="Uneven CF Ans" sheetId="11" r:id="rId9"/>
+    <sheet name="Uneven CF Ans" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -148,7 +148,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1468,71 +1468,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6CC09F-BE49-482A-A714-D11C54C5FE83}">
-  <dimension ref="B8:F14"/>
+  <dimension ref="B8:E14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>-0.93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <f>FV(C9/C14,C8*C14,C11,C10)</f>
-        <v>5382193745.1467047</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>6</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1543,74 +1523,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615BDA6-E070-460B-A6C4-9F53E789244E}">
-  <dimension ref="B8:F14"/>
+  <dimension ref="B8:E14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <f>PMT(C9/C14,C8*C14,C10,C12)</f>
-        <v>-811.05577153654724</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1624,484 +1586,484 @@
   <dimension ref="C5:L75"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:L7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L5" s="1"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="9"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="2"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="9"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="9"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="9"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="9"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="2"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="9"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="9"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="9"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="9"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="9"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="9"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="9"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="9"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="2"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="9"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="9"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="9"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="9"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="9"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="9"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="9"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="9"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="9"/>
       <c r="D66" s="2"/>
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="9"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="9"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="9"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="9"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="9"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="9"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="9"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="9"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
@@ -2123,16 +2085,16 @@
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2102,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2110,7 @@
         <v>811.05577153654701</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2176,7 +2138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -2200,7 +2162,7 @@
         <v>39455.610895130121</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>B9+1</f>
         <v>2</v>
@@ -2226,7 +2188,7 @@
         <v>38907.592529561109</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ref="B11:B68" si="2">B10+1</f>
         <v>3</v>
@@ -2252,7 +2214,7 @@
         <v>38355.920708221638</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2278,7 +2240,7 @@
         <v>37800.571074739899</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2304,7 +2266,7 @@
         <v>37241.519110368288</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2330,7 +2292,7 @@
         <v>36678.740132900864</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2356,7 +2318,7 @@
         <v>36112.209295583656</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2382,7 +2344,7 @@
         <v>35541.901586017666</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2408,7 +2370,7 @@
         <v>34967.79182505457</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2434,7 +2396,7 @@
         <v>34389.854665685052</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2460,7 +2422,7 @@
         <v>33808.064591919741</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2486,7 +2448,7 @@
         <v>33222.395917662659</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2512,7 +2474,7 @@
         <v>32632.822785577198</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2538,7 +2500,7 @@
         <v>32039.3191659445</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2564,7 +2526,7 @@
         <v>31441.858855514249</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2590,7 +2552,7 @@
         <v>30840.415476347796</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2616,7 +2578,7 @@
         <v>30234.962474653566</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2642,7 +2604,7 @@
         <v>29625.473119614711</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2668,7 +2630,7 @@
         <v>29011.92050220893</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2694,7 +2656,7 @@
         <v>28394.277534020443</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2720,7 +2682,7 @@
         <v>27772.51694604403</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2746,7 +2708,7 @@
         <v>27146.611287481112</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2772,7 +2734,7 @@
         <v>26516.532924527772</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2798,7 +2760,7 @@
         <v>25882.254039154745</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2824,7 +2786,7 @@
         <v>25243.746627879231</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2850,7 +2812,7 @@
         <v>24600.982500528546</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2876,7 +2838,7 @@
         <v>23953.933278995522</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2902,7 +2864,7 @@
         <v>23302.570395985611</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2928,7 +2890,7 @@
         <v>22646.865093755634</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2954,7 +2916,7 @@
         <v>21986.788422844125</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2980,7 +2942,7 @@
         <v>21322.311240793206</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3006,7 +2968,7 @@
         <v>20653.404210861947</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3032,7 +2994,7 @@
         <v>19980.037800731145</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3058,7 +3020,7 @@
         <v>19302.182281199472</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3084,7 +3046,7 @@
         <v>18619.80772487092</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -3110,7 +3072,7 @@
         <v>17932.884004833511</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -3136,7 +3098,7 @@
         <v>17241.380793329186</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3162,7 +3124,7 @@
         <v>16545.267560414835</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3188,7 +3150,7 @@
         <v>15844.513572614387</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3214,7 +3176,7 @@
         <v>15139.087891561936</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3240,7 +3202,7 @@
         <v>14428.959372635802</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3266,7 +3228,7 @@
         <v>13714.096663583494</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3292,7 +3254,7 @@
         <v>12994.468203137503</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3318,7 +3280,7 @@
         <v>12270.042219621873</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3344,7 +3306,7 @@
         <v>11540.786729549473</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -3370,7 +3332,7 @@
         <v>10806.669536209922</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -3396,7 +3358,7 @@
         <v>10067.658228248107</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -3422,7 +3384,7 @@
         <v>9323.720178233214</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -3448,7 +3410,7 @@
         <v>8574.8225412182219</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -3474,7 +3436,7 @@
         <v>7820.9322532897968</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -3500,7 +3462,7 @@
         <v>7062.0160301085152</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -3526,7 +3488,7 @@
         <v>6298.0403654393585</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -3552,7 +3514,7 @@
         <v>5528.9715296724071</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -3578,7 +3540,7 @@
         <v>4754.7755683336763</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -3604,7 +3566,7 @@
         <v>3975.4183005860205</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -3630,7 +3592,7 @@
         <v>3190.8653177200467</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -3656,7 +3618,7 @@
         <v>2401.0819816349667</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -3682,7 +3644,7 @@
         <v>1606.0334233093195</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -3708,7 +3670,7 @@
         <v>805.68454126150129</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3734,49 +3696,49 @@
         <v>3.092281986027956E-11</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C70" s="9"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C71" s="9"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C72" s="9"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C73" s="9"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C74" s="9"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C75" s="9"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
@@ -3794,16 +3756,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C565275-12BA-444F-BAB1-B8BF79F45518}">
   <dimension ref="R6:U25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="18:21" x14ac:dyDescent="0.3">
       <c r="S6" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3773,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="18:21" x14ac:dyDescent="0.3">
       <c r="S7" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="18:21" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R11">
         <v>1</v>
       </c>
@@ -3846,7 +3808,7 @@
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="12" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R12">
         <v>2</v>
       </c>
@@ -3863,7 +3825,7 @@
         <v>101.33777777777779</v>
       </c>
     </row>
-    <row r="13" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R13">
         <v>3</v>
       </c>
@@ -3880,7 +3842,7 @@
         <v>102.01336296296297</v>
       </c>
     </row>
-    <row r="14" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R14">
         <v>4</v>
       </c>
@@ -3897,7 +3859,7 @@
         <v>102.69345204938273</v>
       </c>
     </row>
-    <row r="15" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R15">
         <v>5</v>
       </c>
@@ -3914,7 +3876,7 @@
         <v>103.37807506304527</v>
       </c>
     </row>
-    <row r="16" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R16">
         <v>6</v>
       </c>
@@ -3931,7 +3893,7 @@
         <v>104.06726223013224</v>
       </c>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R17">
         <v>7</v>
       </c>
@@ -3948,7 +3910,7 @@
         <v>104.76104397833312</v>
       </c>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R18">
         <v>8</v>
       </c>
@@ -3965,7 +3927,7 @@
         <v>105.45945093818868</v>
       </c>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R19">
         <v>9</v>
       </c>
@@ -3982,7 +3944,7 @@
         <v>106.16251394444328</v>
       </c>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R20">
         <v>10</v>
       </c>
@@ -3999,7 +3961,7 @@
         <v>106.87026403740623</v>
       </c>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R21">
         <v>11</v>
       </c>
@@ -4016,7 +3978,7 @@
         <v>107.58273246432228</v>
       </c>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R22">
         <v>12</v>
       </c>
@@ -4033,7 +3995,7 @@
         <v>108.2999506807511</v>
       </c>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>11</v>
       </c>
@@ -4053,76 +4015,63 @@
   <dimension ref="B8:I17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C8" sqref="C8:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
-        <v>12</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
-        <f>EFFECT(C8,C9)</f>
-        <v>9.3806897670984268E-2</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
-        <f>C11+3%</f>
-        <v>0.12380689767098427</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6">
-        <f>NOMINAL(C13,C9)</f>
-        <v>0.11729144961716997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
     </row>
   </sheetData>
@@ -4136,69 +4085,50 @@
   <dimension ref="B8:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C8:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <f>PMT(C9/C14,C8*C14,C10,C12,C13)</f>
-        <v>11894.230775352336</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4215,19 +4145,19 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -4238,13 +4168,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="15"/>
@@ -4253,7 +4183,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="15"/>
@@ -4262,7 +4192,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="15"/>
@@ -4271,7 +4201,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="15"/>
@@ -4280,7 +4210,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="15"/>
@@ -4289,7 +4219,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
@@ -4298,7 +4228,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="15"/>
@@ -4307,20 +4237,20 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
     </row>
   </sheetData>
@@ -4333,23 +4263,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2E7B69-F8D3-431E-B160-44E966AA22A4}">
   <dimension ref="B7:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
@@ -4389,7 +4319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>0</v>
       </c>
@@ -4423,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>1</v>
       </c>
@@ -4453,7 +4383,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>2</v>
       </c>
@@ -4468,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:J16" si="1">M10</f>
+        <f t="shared" ref="J11:J15" si="1">M10</f>
         <v>1000</v>
       </c>
       <c r="K11" s="3">
@@ -4483,7 +4413,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>3</v>
       </c>
@@ -4513,7 +4443,7 @@
         <v>3090.9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>4</v>
       </c>
@@ -4543,7 +4473,7 @@
         <v>4183.6270000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>5</v>
       </c>
@@ -4573,7 +4503,7 @@
         <v>5309.1358100000007</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>6</v>
       </c>
@@ -4603,12 +4533,12 @@
         <v>5468.4098843000011</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
@@ -4621,12 +4551,12 @@
         <v>5468.4098842999992</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
         <v>5</v>
       </c>
@@ -4652,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>4</v>
       </c>
@@ -4661,7 +4591,7 @@
         <v>4579.7071871945336</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
         <v>2</v>
       </c>
